--- a/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74922CD8-1B71-4A93-9D7E-0CC1860967F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{401B19DA-27F4-4C4A-BBC1-0E72B99AE2F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>Média</t>
-  </si>
-  <si>
-    <t>Ícone com três linhas horizontais revela aba lateral com 
-várias opções de navegação pela app</t>
   </si>
   <si>
     <t>O utilizador pode aceder ao perfil de outro utilizador</t>
@@ -260,6 +256,9 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>Clicar no avatar revela aba lateral com várias opções de navegação pela app</t>
   </si>
 </sst>
 </file>
@@ -851,7 +850,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,7 +903,7 @@
     </row>
     <row r="3" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -950,7 +949,7 @@
     </row>
     <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -973,7 +972,7 @@
     </row>
     <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -996,7 +995,7 @@
     </row>
     <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -1019,7 +1018,7 @@
     </row>
     <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -1042,7 +1041,7 @@
     </row>
     <row r="9" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="10" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -1088,7 +1087,7 @@
     </row>
     <row r="11" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
@@ -1097,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1111,7 +1110,7 @@
     </row>
     <row r="12" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -1134,7 +1133,7 @@
     </row>
     <row r="13" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
@@ -1157,19 +1156,19 @@
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="25">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="25">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1180,7 +1179,7 @@
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
@@ -1203,7 +1202,7 @@
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
@@ -1226,7 +1225,7 @@
     </row>
     <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9">
         <v>15</v>
@@ -1238,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1249,7 +1248,7 @@
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9">
         <v>16</v>
@@ -1272,7 +1271,7 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9">
         <v>17</v>
@@ -1284,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -1295,7 +1294,7 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9">
         <v>18</v>
@@ -1317,8 +1316,8 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>16</v>
+      <c r="B21" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="9">
         <v>19</v>
@@ -1341,7 +1340,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9">
         <v>20</v>
@@ -1364,7 +1363,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="9">
         <v>21</v>
@@ -1387,7 +1386,7 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9">
         <v>22</v>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="9">
         <v>23</v>
@@ -1433,7 +1432,7 @@
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="9">
         <v>24</v>
@@ -1456,7 +1455,7 @@
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="9">
         <v>25</v>
@@ -1488,7 +1487,7 @@
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,22 +1495,22 @@
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{401B19DA-27F4-4C4A-BBC1-0E72B99AE2F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13A97D6D-9152-4C13-BD83-FD1AF8506DF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>Requisito</t>
   </si>
@@ -74,31 +74,6 @@
   </si>
   <si>
     <t>O utilizador pode publicar uma notícia no feed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Implementado:    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sim                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não</t>
-    </r>
   </si>
   <si>
     <r>
@@ -260,12 +235,83 @@
   <si>
     <t>Clicar no avatar revela aba lateral com várias opções de navegação pela app</t>
   </si>
+  <si>
+    <t>2º Sprint</t>
+  </si>
+  <si>
+    <t>Conectar a aplicação ao twitter</t>
+  </si>
+  <si>
+    <t>Apresentar os respetivos tweets no feed do utilizador</t>
+  </si>
+  <si>
+    <t>Apresentar no post da app imagens presentes no link do tweet</t>
+  </si>
+  <si>
+    <t>Através dos interesses do utilizador recolher tweets com hashtags idênticas</t>
+  </si>
+  <si>
+    <t>A barra lateral apresenta o nome das bookmarks</t>
+  </si>
+  <si>
+    <t>O utilizador pode clicar num tweet e, caso exista um link, deve poder ser aberto num browser</t>
+  </si>
+  <si>
+    <t>Ao clicar numa bookmark o utilizador é redirecionado para o link associado</t>
+  </si>
+  <si>
+    <t>Na criação do bookmark é pedido um título, link externo e opcionalmente hashtags</t>
+  </si>
+  <si>
+    <t>O utilizador pode editar o seu perfil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementado:    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sim                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Não                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Removido</t>
+    </r>
+  </si>
+  <si>
+    <t>Esclarecer com cliente</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,8 +369,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +430,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF42FF59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,12 +558,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,8 +590,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,6 +607,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,10 +942,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,657 +955,887 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="21">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="21">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="21">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="21">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="C5" s="25">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="D25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7">
         <v>25</v>
       </c>
-      <c r="C6" s="25">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="27">
         <v>26</v>
       </c>
-      <c r="C7" s="25">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="25" t="s">
+      <c r="D28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="25">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="27">
+        <v>27</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="27">
         <v>28</v>
       </c>
-      <c r="C10" s="25">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="D30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="27">
         <v>29</v>
       </c>
-      <c r="C11" s="25">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="D31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="27">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="27">
         <v>31</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="25">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="D33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="27">
+        <v>32</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="25">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="27">
+        <v>33</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="27">
         <v>34</v>
       </c>
-      <c r="C15" s="25">
+      <c r="D36" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="25">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9">
-        <v>17</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9">
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9">
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9">
-        <v>21</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="9">
-        <v>22</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="9">
-        <v>23</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9">
-        <v>24</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9">
-        <v>25</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Dropbox\LEI\ES\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{401B19DA-27F4-4C4A-BBC1-0E72B99AE2F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FAAEFCAB-A90B-49F0-B7FA-07AA0ED2FBD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>Requisito</t>
   </si>
@@ -74,31 +74,6 @@
   </si>
   <si>
     <t>O utilizador pode publicar uma notícia no feed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Implementado:    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sim                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não</t>
-    </r>
   </si>
   <si>
     <r>
@@ -260,12 +235,116 @@
   <si>
     <t>Clicar no avatar revela aba lateral com várias opções de navegação pela app</t>
   </si>
+  <si>
+    <t>2º Sprint</t>
+  </si>
+  <si>
+    <t>Conectar a aplicação ao twitter</t>
+  </si>
+  <si>
+    <t>Apresentar os respetivos tweets no feed do utilizador</t>
+  </si>
+  <si>
+    <t>Apresentar no post da app imagens presentes no link do tweet</t>
+  </si>
+  <si>
+    <t>Através dos interesses do utilizador recolher tweets com hashtags idênticas</t>
+  </si>
+  <si>
+    <t>A barra lateral apresenta o nome das bookmarks</t>
+  </si>
+  <si>
+    <t>O utilizador pode clicar num tweet e, caso exista um link, deve poder ser aberto num browser</t>
+  </si>
+  <si>
+    <t>Ao clicar numa bookmark o utilizador é redirecionado para o link associado</t>
+  </si>
+  <si>
+    <t>Na criação do bookmark é pedido um título, link externo e opcionalmente hashtags</t>
+  </si>
+  <si>
+    <t>O utilizador pode editar o seu perfil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implementado:    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sim                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Não                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Removido</t>
+    </r>
+  </si>
+  <si>
+    <t>Esclarecer com cliente</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nº REQUISITOS</t>
+  </si>
+  <si>
+    <t>ATUAIS</t>
+  </si>
+  <si>
+    <t>NOVOS</t>
+  </si>
+  <si>
+    <t>ALTERADOS</t>
+  </si>
+  <si>
+    <t>ELIMINADOS</t>
+  </si>
+  <si>
+    <t>IMPLEMENTADOS</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>deslizante a direita? Confirmar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,8 +402,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +470,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF42FF59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FF42FF59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,12 +610,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,8 +642,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,6 +659,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,6 +697,1257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>REQUISITOS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Página1!$N$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATUAIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Página1!$O$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AF3-47D4-A0B3-AF3B55214FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Página1!$N$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOVOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Página1!$O$39:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AF3-47D4-A0B3-AF3B55214FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Página1!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALTERADOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Página1!$O$40:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AF3-47D4-A0B3-AF3B55214FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Página1!$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ELIMINADOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Página1!$O$41:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7AF3-47D4-A0B3-AF3B55214FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Página1!$N$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMPLEMENTADOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Página1!$O$42:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7AF3-47D4-A0B3-AF3B55214FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="278503280"/>
+        <c:axId val="413132264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="278503280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413132264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413132264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278503280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:alpha val="97000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC666DEF-9989-4BE5-B41E-6C9F89595EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,10 +2250,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,661 +2263,993 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="21">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="21">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="21">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="21">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="27">
+        <v>26</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="27">
+        <v>27</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="27">
+        <v>28</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="27">
+        <v>29</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="27">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="27">
+        <v>31</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="27">
+        <v>32</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="27">
+        <v>33</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="27">
+        <v>34</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="N37" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="N38" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38">
+        <v>25</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="25">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="25">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="25">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="25">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="25">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="25">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="25">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="25">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="25">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9">
-        <v>17</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9">
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9">
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9">
-        <v>21</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="9">
-        <v>22</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="9">
-        <v>23</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9">
-        <v>24</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9">
-        <v>25</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
+++ b/doc/team-requisitos/Requisitos/Tabela de Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Pires\Dropbox\LEI\ES\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D807EE36-742E-4BE7-92A1-83F154A6B1D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A20F2959-B23A-490A-88A4-4845737D4401}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
   <si>
     <t>TABELA DE REQUISITOS</t>
   </si>
@@ -507,12 +507,30 @@
   <si>
     <t>No registo devem ser sugeridos temas de interesse populares ao utilizador (pré definidos)</t>
   </si>
+  <si>
+    <t>O utilizador deve associar-se a um research Center</t>
+  </si>
+  <si>
+    <t>No registo o utilizador pode, ou não, inserir uma foto de perfil.</t>
+  </si>
+  <si>
+    <t>As bookmarks podem estar organizadas por temas ou pastas</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7      </t>
+  </si>
+  <si>
+    <t>Adição de 3 requisitos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -645,8 +663,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +758,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -766,9 +811,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -880,7 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -902,6 +945,22 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,7 +1102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Página1!$N$63</c:f>
+              <c:f>Página1!$N$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1094,7 +1153,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Página1!$O$63:$R$63</c:f>
+              <c:f>Página1!$O$67:$R$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1102,7 +1161,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1125,7 +1184,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Página1!$N$64</c:f>
+              <c:f>Página1!$N$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1176,7 +1235,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Página1!$O$64:$R$64</c:f>
+              <c:f>Página1!$O$68:$R$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1184,7 +1243,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1207,7 +1266,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Página1!$N$65</c:f>
+              <c:f>Página1!$N$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1257,7 +1316,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Página1!$O$65:$R$65</c:f>
+              <c:f>Página1!$O$69:$R$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1288,7 +1347,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Página1!$N$66</c:f>
+              <c:f>Página1!$N$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1398,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Página1!$O$66:$R$66</c:f>
+              <c:f>Página1!$O$70:$R$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1370,7 +1429,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Página1!$N$67</c:f>
+              <c:f>Página1!$N$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1421,7 +1480,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Página1!$O$67:$R$67</c:f>
+              <c:f>Página1!$O$71:$R$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1652,13 +1711,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>111960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>5400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1986,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2006,1742 +2065,1784 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="50">
+        <v>43389</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D9" s="50">
         <v>43356</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D10" s="50">
         <v>43355</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D11" s="50">
         <v>43382</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C12" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D12" s="50">
         <v>43371</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C13" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D13" s="50">
         <v>43369</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
-      <c r="C14" s="58" t="s">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="53"/>
+      <c r="C15" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="48" t="s">
+    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="28">
+        <v>6</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="28">
+        <v>7</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C34" s="28">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="28">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="28">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="28">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="28">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="28">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="28">
+        <v>14</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="28">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="28">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="28">
+        <v>17</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="15"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="36">
+        <v>3</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="28">
+        <v>4</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="36">
+        <v>5</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="28">
+        <v>6</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="36">
         <v>7</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="28">
+        <v>8</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="36">
+        <v>9</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="28">
+        <v>10</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="36">
+        <v>11</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="28">
+        <v>12</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="N66" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O66" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P66" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O67">
+        <v>25</v>
+      </c>
+      <c r="P67">
+        <v>45</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="N68" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O68">
+        <v>25</v>
+      </c>
+      <c r="P68">
+        <v>24</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="7">
+        <v>2</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="N69" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="N70" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="7">
+        <v>4</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="N71" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O71">
+        <v>12</v>
+      </c>
+      <c r="P71">
+        <v>12</v>
+      </c>
+      <c r="Q71">
+        <v>12</v>
+      </c>
+      <c r="R71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="7">
+        <v>5</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="7">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="14">
+        <v>2</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="14">
+        <v>3</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="36">
+        <v>4</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="36">
+        <v>5</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="36">
+        <v>6</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="I87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="E88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="7">
+        <v>2</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="7">
+        <v>3</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="7">
+        <v>4</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="7">
+        <v>5</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I92" s="44"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="J96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="E97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="8">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="8">
-        <v>11</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="16"/>
+      <c r="L97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="14">
+        <v>2</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="8">
-        <v>12</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="36">
+        <v>3</v>
+      </c>
+      <c r="D99" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E99" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="8">
-        <v>13</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="8">
-        <v>14</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="8">
-        <v>15</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="15">
-        <v>1</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="37">
-        <v>3</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="29">
-        <v>4</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="37">
-        <v>5</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="29">
-        <v>6</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="37">
-        <v>7</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="29">
-        <v>8</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="37">
-        <v>9</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="29">
-        <v>10</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="37">
-        <v>11</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="29">
-        <v>12</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="N62" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O62" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P62" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R62" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="O63">
-        <v>25</v>
-      </c>
-      <c r="P63">
-        <v>42</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="8">
-        <v>1</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="N64" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O64">
-        <v>25</v>
-      </c>
-      <c r="P64">
-        <v>21</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="8">
-        <v>2</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="N65" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>4</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="8">
-        <v>3</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="N66" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="8">
-        <v>4</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="N67" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="O67">
-        <v>12</v>
-      </c>
-      <c r="P67">
-        <v>12</v>
-      </c>
-      <c r="Q67">
-        <v>12</v>
-      </c>
-      <c r="R67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="8">
-        <v>5</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="8">
-        <v>6</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-    </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="15">
-        <v>1</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="15">
-        <v>2</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="15">
-        <v>3</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="37">
-        <v>4</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="37">
-        <v>5</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="8">
-        <v>1</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H83" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="8">
-        <v>2</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="8">
-        <v>3</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="8">
-        <v>4</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="8">
-        <v>5</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I87" s="45"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="8">
-        <v>1</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="17"/>
-      <c r="L92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="15">
-        <v>2</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="19"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="37">
-        <v>3</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="19"/>
-    </row>
-    <row r="98" spans="2:2" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B98" s="43" t="s">
+      <c r="G99" s="36"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="18"/>
+    </row>
+    <row r="103" spans="2:12" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B103" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B99" s="44"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B100" s="44" t="s">
+    <row r="104" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="43"/>
+    </row>
+    <row r="105" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="44" t="s">
+    <row r="106" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="44" t="s">
+    <row r="107" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" display="user@domain.tld" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B38" r:id="rId1" display="user@domain.tld" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
